--- a/published-data/fonds-solidarite/fds-2020-06-24/fonds-solidarite-volet-2-regional-categorie-juridique-latest.xlsx
+++ b/published-data/fonds-solidarite/fds-2020-06-24/fonds-solidarite-volet-2-regional-categorie-juridique-latest.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="672" uniqueCount="187">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="672" uniqueCount="190">
   <si>
     <t>dispositif</t>
   </si>
@@ -76,484 +76,493 @@
     <t>5</t>
   </si>
   <si>
+    <t>154</t>
+  </si>
+  <si>
+    <t>7</t>
+  </si>
+  <si>
+    <t>357</t>
+  </si>
+  <si>
+    <t>103</t>
+  </si>
+  <si>
+    <t>6</t>
+  </si>
+  <si>
+    <t>106</t>
+  </si>
+  <si>
+    <t>265</t>
+  </si>
+  <si>
+    <t>125</t>
+  </si>
+  <si>
+    <t>3</t>
+  </si>
+  <si>
+    <t>69</t>
+  </si>
+  <si>
+    <t>115</t>
+  </si>
+  <si>
+    <t>82</t>
+  </si>
+  <si>
     <t>150</t>
   </si>
   <si>
-    <t>6</t>
-  </si>
-  <si>
-    <t>353</t>
-  </si>
-  <si>
-    <t>103</t>
-  </si>
-  <si>
-    <t>105</t>
-  </si>
-  <si>
-    <t>265</t>
-  </si>
-  <si>
-    <t>125</t>
-  </si>
-  <si>
-    <t>3</t>
-  </si>
-  <si>
-    <t>49</t>
+    <t>337</t>
+  </si>
+  <si>
+    <t>10</t>
+  </si>
+  <si>
+    <t>147</t>
+  </si>
+  <si>
+    <t>113</t>
+  </si>
+  <si>
+    <t>12</t>
+  </si>
+  <si>
+    <t>9</t>
+  </si>
+  <si>
+    <t>13</t>
+  </si>
+  <si>
+    <t>17</t>
+  </si>
+  <si>
+    <t>159</t>
+  </si>
+  <si>
+    <t>371</t>
+  </si>
+  <si>
+    <t>252</t>
+  </si>
+  <si>
+    <t>76</t>
+  </si>
+  <si>
+    <t>161</t>
+  </si>
+  <si>
+    <t>118</t>
+  </si>
+  <si>
+    <t>135</t>
+  </si>
+  <si>
+    <t>250</t>
+  </si>
+  <si>
+    <t>143</t>
+  </si>
+  <si>
+    <t>270</t>
+  </si>
+  <si>
+    <t>692</t>
+  </si>
+  <si>
+    <t>394</t>
+  </si>
+  <si>
+    <t>29</t>
+  </si>
+  <si>
+    <t>297</t>
+  </si>
+  <si>
+    <t>686</t>
+  </si>
+  <si>
+    <t>493</t>
+  </si>
+  <si>
+    <t>22</t>
+  </si>
+  <si>
+    <t>19</t>
+  </si>
+  <si>
+    <t>141</t>
+  </si>
+  <si>
+    <t>391</t>
+  </si>
+  <si>
+    <t>148</t>
+  </si>
+  <si>
+    <t>375</t>
+  </si>
+  <si>
+    <t>8</t>
+  </si>
+  <si>
+    <t>851</t>
+  </si>
+  <si>
+    <t>797</t>
+  </si>
+  <si>
+    <t>1804</t>
+  </si>
+  <si>
+    <t>2782</t>
+  </si>
+  <si>
+    <t>2842</t>
+  </si>
+  <si>
+    <t>41</t>
+  </si>
+  <si>
+    <t>45</t>
+  </si>
+  <si>
+    <t>702677.00</t>
+  </si>
+  <si>
+    <t>14000.00</t>
+  </si>
+  <si>
+    <t>1902050.22</t>
+  </si>
+  <si>
+    <t>12500.00</t>
+  </si>
+  <si>
+    <t>1110908.27</t>
+  </si>
+  <si>
+    <t>25000.00</t>
+  </si>
+  <si>
+    <t>38093.58</t>
+  </si>
+  <si>
+    <t>192455.66</t>
+  </si>
+  <si>
+    <t>624181.77</t>
+  </si>
+  <si>
+    <t>215245.00</t>
+  </si>
+  <si>
+    <t>11500.00</t>
+  </si>
+  <si>
+    <t>342500.00</t>
+  </si>
+  <si>
+    <t>18500.00</t>
+  </si>
+  <si>
+    <t>1004145.00</t>
+  </si>
+  <si>
+    <t>257933.00</t>
+  </si>
+  <si>
+    <t>13350.00</t>
+  </si>
+  <si>
+    <t>11393.00</t>
+  </si>
+  <si>
+    <t>234500.00</t>
+  </si>
+  <si>
+    <t>724068.33</t>
+  </si>
+  <si>
+    <t>296253.26</t>
+  </si>
+  <si>
+    <t>15000.00</t>
+  </si>
+  <si>
+    <t>6000.00</t>
+  </si>
+  <si>
+    <t>163500.00</t>
+  </si>
+  <si>
+    <t>326336.66</t>
+  </si>
+  <si>
+    <t>212000.00</t>
+  </si>
+  <si>
+    <t>322500.00</t>
+  </si>
+  <si>
+    <t>900187.00</t>
+  </si>
+  <si>
+    <t>12000.00</t>
+  </si>
+  <si>
+    <t>641402.00</t>
+  </si>
+  <si>
+    <t>21500.00</t>
+  </si>
+  <si>
+    <t>267700.00</t>
+  </si>
+  <si>
+    <t>399000.00</t>
+  </si>
+  <si>
+    <t>274995.14</t>
+  </si>
+  <si>
+    <t>25500.00</t>
+  </si>
+  <si>
+    <t>19500.00</t>
+  </si>
+  <si>
+    <t>41000.00</t>
+  </si>
+  <si>
+    <t>40000.00</t>
+  </si>
+  <si>
+    <t>352500.00</t>
+  </si>
+  <si>
+    <t>9000.00</t>
+  </si>
+  <si>
+    <t>1006377.00</t>
+  </si>
+  <si>
+    <t>645000.00</t>
+  </si>
+  <si>
+    <t>8000.00</t>
+  </si>
+  <si>
+    <t>159500.00</t>
+  </si>
+  <si>
+    <t>441500.00</t>
+  </si>
+  <si>
+    <t>287000.00</t>
+  </si>
+  <si>
+    <t>305560.00</t>
+  </si>
+  <si>
+    <t>653484.60</t>
+  </si>
+  <si>
+    <t>344500.00</t>
+  </si>
+  <si>
+    <t>10000.00</t>
+  </si>
+  <si>
+    <t>30000.00</t>
+  </si>
+  <si>
+    <t>595500.00</t>
+  </si>
+  <si>
+    <t>1864913.03</t>
+  </si>
+  <si>
+    <t>1001000.00</t>
+  </si>
+  <si>
+    <t>79000.00</t>
+  </si>
+  <si>
+    <t>42000.00</t>
+  </si>
+  <si>
+    <t>648000.00</t>
+  </si>
+  <si>
+    <t>1861782.61</t>
+  </si>
+  <si>
+    <t>1213196.22</t>
+  </si>
+  <si>
+    <t>53000.00</t>
+  </si>
+  <si>
+    <t>38000.00</t>
+  </si>
+  <si>
+    <t>309000.00</t>
+  </si>
+  <si>
+    <t>7500.00</t>
+  </si>
+  <si>
+    <t>1069896.01</t>
+  </si>
+  <si>
+    <t>357677.09</t>
+  </si>
+  <si>
+    <t>33500.00</t>
+  </si>
+  <si>
+    <t>801000.00</t>
+  </si>
+  <si>
+    <t>2293829.00</t>
+  </si>
+  <si>
+    <t>1963906.50</t>
+  </si>
+  <si>
+    <t>27500.00</t>
+  </si>
+  <si>
+    <t>59500.00</t>
+  </si>
+  <si>
+    <t>3744000.00</t>
+  </si>
+  <si>
+    <t>30500.00</t>
+  </si>
+  <si>
+    <t>7317449.03</t>
+  </si>
+  <si>
+    <t>34500.00</t>
+  </si>
+  <si>
+    <t>6851516.41</t>
+  </si>
+  <si>
+    <t>106000.00</t>
+  </si>
+  <si>
+    <t>100500.00</t>
+  </si>
+  <si>
+    <t>84</t>
+  </si>
+  <si>
+    <t>27</t>
+  </si>
+  <si>
+    <t>53</t>
+  </si>
+  <si>
+    <t>24</t>
+  </si>
+  <si>
+    <t>94</t>
+  </si>
+  <si>
+    <t>44</t>
+  </si>
+  <si>
+    <t>01</t>
+  </si>
+  <si>
+    <t>03</t>
+  </si>
+  <si>
+    <t>32</t>
+  </si>
+  <si>
+    <t>02</t>
+  </si>
+  <si>
+    <t>28</t>
+  </si>
+  <si>
+    <t>75</t>
+  </si>
+  <si>
+    <t>52</t>
+  </si>
+  <si>
+    <t>93</t>
+  </si>
+  <si>
+    <t>Auvergne-Rhône-Alpes</t>
+  </si>
+  <si>
+    <t>Bourgogne-Franche-Comté</t>
+  </si>
+  <si>
+    <t>Bretagne</t>
+  </si>
+  <si>
+    <t>Centre-Val de Loire</t>
+  </si>
+  <si>
+    <t>Corse</t>
+  </si>
+  <si>
+    <t>Grand Est</t>
+  </si>
+  <si>
+    <t>Guadeloupe</t>
+  </si>
+  <si>
+    <t>Guyane</t>
+  </si>
+  <si>
+    <t>Hauts-de-France</t>
+  </si>
+  <si>
+    <t>Martinique</t>
+  </si>
+  <si>
+    <t>Normandie</t>
+  </si>
+  <si>
+    <t>Nouvelle-Aquitaine</t>
+  </si>
+  <si>
+    <t>Occitanie</t>
+  </si>
+  <si>
+    <t>Pays de la Loire</t>
+  </si>
+  <si>
+    <t>Provence-Alpes-Côte d'Azur</t>
+  </si>
+  <si>
+    <t>Île-de-France</t>
+  </si>
+  <si>
+    <t>54</t>
+  </si>
+  <si>
+    <t>55</t>
+  </si>
+  <si>
+    <t>57</t>
+  </si>
+  <si>
+    <t>65</t>
   </si>
   <si>
     <t>92</t>
-  </si>
-  <si>
-    <t>70</t>
-  </si>
-  <si>
-    <t>336</t>
-  </si>
-  <si>
-    <t>10</t>
-  </si>
-  <si>
-    <t>147</t>
-  </si>
-  <si>
-    <t>113</t>
-  </si>
-  <si>
-    <t>12</t>
-  </si>
-  <si>
-    <t>9</t>
-  </si>
-  <si>
-    <t>13</t>
-  </si>
-  <si>
-    <t>17</t>
-  </si>
-  <si>
-    <t>159</t>
-  </si>
-  <si>
-    <t>370</t>
-  </si>
-  <si>
-    <t>251</t>
-  </si>
-  <si>
-    <t>76</t>
-  </si>
-  <si>
-    <t>161</t>
-  </si>
-  <si>
-    <t>118</t>
-  </si>
-  <si>
-    <t>130</t>
-  </si>
-  <si>
-    <t>241</t>
-  </si>
-  <si>
-    <t>140</t>
-  </si>
-  <si>
-    <t>270</t>
-  </si>
-  <si>
-    <t>692</t>
-  </si>
-  <si>
-    <t>394</t>
-  </si>
-  <si>
-    <t>29</t>
-  </si>
-  <si>
-    <t>297</t>
-  </si>
-  <si>
-    <t>686</t>
-  </si>
-  <si>
-    <t>493</t>
-  </si>
-  <si>
-    <t>22</t>
-  </si>
-  <si>
-    <t>19</t>
-  </si>
-  <si>
-    <t>391</t>
-  </si>
-  <si>
-    <t>148</t>
-  </si>
-  <si>
-    <t>369</t>
-  </si>
-  <si>
-    <t>7</t>
-  </si>
-  <si>
-    <t>842</t>
-  </si>
-  <si>
-    <t>786</t>
-  </si>
-  <si>
-    <t>28</t>
-  </si>
-  <si>
-    <t>1804</t>
-  </si>
-  <si>
-    <t>2782</t>
-  </si>
-  <si>
-    <t>2842</t>
-  </si>
-  <si>
-    <t>41</t>
-  </si>
-  <si>
-    <t>45</t>
-  </si>
-  <si>
-    <t>702677.00</t>
-  </si>
-  <si>
-    <t>14000.00</t>
-  </si>
-  <si>
-    <t>1902050.22</t>
-  </si>
-  <si>
-    <t>12500.00</t>
-  </si>
-  <si>
-    <t>1110908.27</t>
-  </si>
-  <si>
-    <t>25000.00</t>
-  </si>
-  <si>
-    <t>38093.58</t>
-  </si>
-  <si>
-    <t>192455.66</t>
-  </si>
-  <si>
-    <t>624181.77</t>
-  </si>
-  <si>
-    <t>215245.00</t>
-  </si>
-  <si>
-    <t>11500.00</t>
-  </si>
-  <si>
-    <t>334500.00</t>
-  </si>
-  <si>
-    <t>16500.00</t>
-  </si>
-  <si>
-    <t>994645.00</t>
-  </si>
-  <si>
-    <t>257933.00</t>
-  </si>
-  <si>
-    <t>13350.00</t>
-  </si>
-  <si>
-    <t>11393.00</t>
-  </si>
-  <si>
-    <t>232500.00</t>
-  </si>
-  <si>
-    <t>724068.33</t>
-  </si>
-  <si>
-    <t>296253.26</t>
-  </si>
-  <si>
-    <t>15000.00</t>
-  </si>
-  <si>
-    <t>6000.00</t>
-  </si>
-  <si>
-    <t>119000.00</t>
-  </si>
-  <si>
-    <t>262336.66</t>
-  </si>
-  <si>
-    <t>185000.00</t>
-  </si>
-  <si>
-    <t>322500.00</t>
-  </si>
-  <si>
-    <t>896687.00</t>
-  </si>
-  <si>
-    <t>12000.00</t>
-  </si>
-  <si>
-    <t>641402.00</t>
-  </si>
-  <si>
-    <t>21500.00</t>
-  </si>
-  <si>
-    <t>267700.00</t>
-  </si>
-  <si>
-    <t>399000.00</t>
-  </si>
-  <si>
-    <t>274995.14</t>
-  </si>
-  <si>
-    <t>25500.00</t>
-  </si>
-  <si>
-    <t>19500.00</t>
-  </si>
-  <si>
-    <t>41000.00</t>
-  </si>
-  <si>
-    <t>40000.00</t>
-  </si>
-  <si>
-    <t>352500.00</t>
-  </si>
-  <si>
-    <t>9000.00</t>
-  </si>
-  <si>
-    <t>1004377.00</t>
-  </si>
-  <si>
-    <t>637000.00</t>
-  </si>
-  <si>
-    <t>8000.00</t>
-  </si>
-  <si>
-    <t>159500.00</t>
-  </si>
-  <si>
-    <t>441500.00</t>
-  </si>
-  <si>
-    <t>287000.00</t>
-  </si>
-  <si>
-    <t>294060.00</t>
-  </si>
-  <si>
-    <t>632484.60</t>
-  </si>
-  <si>
-    <t>334000.00</t>
-  </si>
-  <si>
-    <t>10000.00</t>
-  </si>
-  <si>
-    <t>28000.00</t>
-  </si>
-  <si>
-    <t>595500.00</t>
-  </si>
-  <si>
-    <t>1864913.03</t>
-  </si>
-  <si>
-    <t>1001000.00</t>
-  </si>
-  <si>
-    <t>79000.00</t>
-  </si>
-  <si>
-    <t>42000.00</t>
-  </si>
-  <si>
-    <t>648000.00</t>
-  </si>
-  <si>
-    <t>1861782.61</t>
-  </si>
-  <si>
-    <t>1213196.22</t>
-  </si>
-  <si>
-    <t>53000.00</t>
-  </si>
-  <si>
-    <t>38000.00</t>
-  </si>
-  <si>
-    <t>307000.00</t>
-  </si>
-  <si>
-    <t>7500.00</t>
-  </si>
-  <si>
-    <t>1069896.01</t>
-  </si>
-  <si>
-    <t>357677.09</t>
-  </si>
-  <si>
-    <t>33500.00</t>
-  </si>
-  <si>
-    <t>789000.00</t>
-  </si>
-  <si>
-    <t>20000.00</t>
-  </si>
-  <si>
-    <t>2271329.00</t>
-  </si>
-  <si>
-    <t>1937406.50</t>
-  </si>
-  <si>
-    <t>27500.00</t>
-  </si>
-  <si>
-    <t>57500.00</t>
-  </si>
-  <si>
-    <t>3744000.00</t>
-  </si>
-  <si>
-    <t>30500.00</t>
-  </si>
-  <si>
-    <t>7317449.03</t>
-  </si>
-  <si>
-    <t>34500.00</t>
-  </si>
-  <si>
-    <t>6851516.41</t>
-  </si>
-  <si>
-    <t>106000.00</t>
-  </si>
-  <si>
-    <t>100500.00</t>
-  </si>
-  <si>
-    <t>84</t>
-  </si>
-  <si>
-    <t>27</t>
-  </si>
-  <si>
-    <t>53</t>
-  </si>
-  <si>
-    <t>24</t>
-  </si>
-  <si>
-    <t>94</t>
-  </si>
-  <si>
-    <t>44</t>
-  </si>
-  <si>
-    <t>01</t>
-  </si>
-  <si>
-    <t>03</t>
-  </si>
-  <si>
-    <t>32</t>
-  </si>
-  <si>
-    <t>02</t>
-  </si>
-  <si>
-    <t>75</t>
-  </si>
-  <si>
-    <t>52</t>
-  </si>
-  <si>
-    <t>93</t>
-  </si>
-  <si>
-    <t>Auvergne-Rhône-Alpes</t>
-  </si>
-  <si>
-    <t>Bourgogne-Franche-Comté</t>
-  </si>
-  <si>
-    <t>Bretagne</t>
-  </si>
-  <si>
-    <t>Centre-Val de Loire</t>
-  </si>
-  <si>
-    <t>Corse</t>
-  </si>
-  <si>
-    <t>Grand Est</t>
-  </si>
-  <si>
-    <t>Guadeloupe</t>
-  </si>
-  <si>
-    <t>Guyane</t>
-  </si>
-  <si>
-    <t>Hauts-de-France</t>
-  </si>
-  <si>
-    <t>Martinique</t>
-  </si>
-  <si>
-    <t>Normandie</t>
-  </si>
-  <si>
-    <t>Nouvelle-Aquitaine</t>
-  </si>
-  <si>
-    <t>Occitanie</t>
-  </si>
-  <si>
-    <t>Pays de la Loire</t>
-  </si>
-  <si>
-    <t>Provence-Alpes-Côte d'Azur</t>
-  </si>
-  <si>
-    <t>Île-de-France</t>
-  </si>
-  <si>
-    <t>54</t>
-  </si>
-  <si>
-    <t>55</t>
-  </si>
-  <si>
-    <t>57</t>
-  </si>
-  <si>
-    <t>65</t>
   </si>
   <si>
     <t>Entrepreneur individuel</t>
@@ -975,19 +984,19 @@
         <v>10</v>
       </c>
       <c r="D2" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="E2" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="F2" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="G2" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="H2" t="s">
-        <v>180</v>
+        <v>183</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -1001,19 +1010,19 @@
         <v>11</v>
       </c>
       <c r="D3" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="E3" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="F3" t="s">
+        <v>162</v>
+      </c>
+      <c r="G3" t="s">
         <v>160</v>
       </c>
-      <c r="G3" t="s">
-        <v>158</v>
-      </c>
       <c r="H3" t="s">
-        <v>181</v>
+        <v>184</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -1027,19 +1036,19 @@
         <v>12</v>
       </c>
       <c r="D4" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="E4" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="F4" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="G4" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="H4" t="s">
-        <v>182</v>
+        <v>185</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -1053,19 +1062,19 @@
         <v>11</v>
       </c>
       <c r="D5" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="E5" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="F5" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="G5" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="H5" t="s">
-        <v>183</v>
+        <v>186</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -1079,19 +1088,19 @@
         <v>13</v>
       </c>
       <c r="D6" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="E6" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="F6" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="G6" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="H6" t="s">
-        <v>184</v>
+        <v>187</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -1105,19 +1114,19 @@
         <v>14</v>
       </c>
       <c r="D7" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="E7" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="F7" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="G7" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="H7" t="s">
-        <v>185</v>
+        <v>188</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -1131,19 +1140,19 @@
         <v>15</v>
       </c>
       <c r="D8" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="E8" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="F8" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="G8" t="s">
-        <v>29</v>
+        <v>182</v>
       </c>
       <c r="H8" t="s">
-        <v>186</v>
+        <v>189</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -1157,19 +1166,19 @@
         <v>16</v>
       </c>
       <c r="D9" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="E9" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="F9" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="G9" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="H9" t="s">
-        <v>180</v>
+        <v>183</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -1183,19 +1192,19 @@
         <v>17</v>
       </c>
       <c r="D10" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="E10" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="F10" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="G10" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="H10" t="s">
-        <v>182</v>
+        <v>185</v>
       </c>
     </row>
     <row r="11" spans="1:8">
@@ -1209,19 +1218,19 @@
         <v>18</v>
       </c>
       <c r="D11" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="E11" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="F11" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="G11" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="H11" t="s">
-        <v>184</v>
+        <v>187</v>
       </c>
     </row>
     <row r="12" spans="1:8">
@@ -1235,19 +1244,19 @@
         <v>19</v>
       </c>
       <c r="D12" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="E12" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="F12" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="G12" t="s">
-        <v>29</v>
+        <v>182</v>
       </c>
       <c r="H12" t="s">
-        <v>186</v>
+        <v>189</v>
       </c>
     </row>
     <row r="13" spans="1:8">
@@ -1261,19 +1270,19 @@
         <v>20</v>
       </c>
       <c r="D13" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="E13" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="F13" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="G13" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="H13" t="s">
-        <v>180</v>
+        <v>183</v>
       </c>
     </row>
     <row r="14" spans="1:8">
@@ -1287,19 +1296,19 @@
         <v>21</v>
       </c>
       <c r="D14" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="E14" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="F14" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="G14" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="H14" t="s">
-        <v>181</v>
+        <v>184</v>
       </c>
     </row>
     <row r="15" spans="1:8">
@@ -1313,19 +1322,19 @@
         <v>22</v>
       </c>
       <c r="D15" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="E15" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="F15" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="G15" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="H15" t="s">
-        <v>182</v>
+        <v>185</v>
       </c>
     </row>
     <row r="16" spans="1:8">
@@ -1339,19 +1348,19 @@
         <v>23</v>
       </c>
       <c r="D16" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="E16" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="F16" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="G16" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="H16" t="s">
-        <v>184</v>
+        <v>187</v>
       </c>
     </row>
     <row r="17" spans="1:8">
@@ -1362,22 +1371,22 @@
         <v>9</v>
       </c>
       <c r="C17" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="D17" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="E17" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="F17" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="G17" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="H17" t="s">
-        <v>185</v>
+        <v>188</v>
       </c>
     </row>
     <row r="18" spans="1:8">
@@ -1391,19 +1400,19 @@
         <v>19</v>
       </c>
       <c r="D18" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="E18" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="F18" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="G18" t="s">
-        <v>29</v>
+        <v>182</v>
       </c>
       <c r="H18" t="s">
-        <v>186</v>
+        <v>189</v>
       </c>
     </row>
     <row r="19" spans="1:8">
@@ -1414,22 +1423,22 @@
         <v>9</v>
       </c>
       <c r="C19" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D19" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="E19" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="F19" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="G19" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="H19" t="s">
-        <v>180</v>
+        <v>183</v>
       </c>
     </row>
     <row r="20" spans="1:8">
@@ -1440,22 +1449,22 @@
         <v>9</v>
       </c>
       <c r="C20" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D20" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="E20" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="F20" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="G20" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="H20" t="s">
-        <v>182</v>
+        <v>185</v>
       </c>
     </row>
     <row r="21" spans="1:8">
@@ -1466,22 +1475,22 @@
         <v>9</v>
       </c>
       <c r="C21" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D21" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="E21" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="F21" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="G21" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="H21" t="s">
-        <v>184</v>
+        <v>187</v>
       </c>
     </row>
     <row r="22" spans="1:8">
@@ -1492,22 +1501,22 @@
         <v>9</v>
       </c>
       <c r="C22" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="D22" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="E22" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="F22" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="G22" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="H22" t="s">
-        <v>185</v>
+        <v>188</v>
       </c>
     </row>
     <row r="23" spans="1:8">
@@ -1518,22 +1527,22 @@
         <v>9</v>
       </c>
       <c r="C23" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D23" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="E23" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="F23" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="G23" t="s">
-        <v>29</v>
+        <v>182</v>
       </c>
       <c r="H23" t="s">
-        <v>186</v>
+        <v>189</v>
       </c>
     </row>
     <row r="24" spans="1:8">
@@ -1544,22 +1553,22 @@
         <v>9</v>
       </c>
       <c r="C24" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D24" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="E24" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="F24" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="G24" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="H24" t="s">
-        <v>180</v>
+        <v>183</v>
       </c>
     </row>
     <row r="25" spans="1:8">
@@ -1570,22 +1579,22 @@
         <v>9</v>
       </c>
       <c r="C25" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D25" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="E25" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="F25" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="G25" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="H25" t="s">
-        <v>182</v>
+        <v>185</v>
       </c>
     </row>
     <row r="26" spans="1:8">
@@ -1596,22 +1605,22 @@
         <v>9</v>
       </c>
       <c r="C26" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D26" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="E26" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="F26" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="G26" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="H26" t="s">
-        <v>184</v>
+        <v>187</v>
       </c>
     </row>
     <row r="27" spans="1:8">
@@ -1622,22 +1631,22 @@
         <v>9</v>
       </c>
       <c r="C27" t="s">
-        <v>20</v>
+        <v>32</v>
       </c>
       <c r="D27" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="E27" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="F27" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="G27" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="H27" t="s">
-        <v>180</v>
+        <v>183</v>
       </c>
     </row>
     <row r="28" spans="1:8">
@@ -1648,22 +1657,22 @@
         <v>9</v>
       </c>
       <c r="C28" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="D28" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="E28" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="F28" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="G28" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="H28" t="s">
-        <v>182</v>
+        <v>185</v>
       </c>
     </row>
     <row r="29" spans="1:8">
@@ -1674,22 +1683,22 @@
         <v>9</v>
       </c>
       <c r="C29" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D29" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="E29" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="F29" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="G29" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="H29" t="s">
-        <v>183</v>
+        <v>186</v>
       </c>
     </row>
     <row r="30" spans="1:8">
@@ -1700,22 +1709,22 @@
         <v>9</v>
       </c>
       <c r="C30" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D30" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="E30" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="F30" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="G30" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="H30" t="s">
-        <v>184</v>
+        <v>187</v>
       </c>
     </row>
     <row r="31" spans="1:8">
@@ -1726,22 +1735,22 @@
         <v>9</v>
       </c>
       <c r="C31" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="D31" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="E31" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="F31" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="G31" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="H31" t="s">
-        <v>185</v>
+        <v>188</v>
       </c>
     </row>
     <row r="32" spans="1:8">
@@ -1752,22 +1761,22 @@
         <v>9</v>
       </c>
       <c r="C32" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="D32" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="E32" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="F32" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="G32" t="s">
-        <v>29</v>
+        <v>182</v>
       </c>
       <c r="H32" t="s">
-        <v>186</v>
+        <v>189</v>
       </c>
     </row>
     <row r="33" spans="1:8">
@@ -1778,22 +1787,22 @@
         <v>9</v>
       </c>
       <c r="C33" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D33" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="E33" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="F33" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="G33" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="H33" t="s">
-        <v>180</v>
+        <v>183</v>
       </c>
     </row>
     <row r="34" spans="1:8">
@@ -1804,22 +1813,22 @@
         <v>9</v>
       </c>
       <c r="C34" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="D34" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="E34" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="F34" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="G34" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="H34" t="s">
-        <v>182</v>
+        <v>185</v>
       </c>
     </row>
     <row r="35" spans="1:8">
@@ -1830,22 +1839,22 @@
         <v>9</v>
       </c>
       <c r="C35" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="D35" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="E35" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="F35" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="G35" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="H35" t="s">
-        <v>184</v>
+        <v>187</v>
       </c>
     </row>
     <row r="36" spans="1:8">
@@ -1856,22 +1865,22 @@
         <v>9</v>
       </c>
       <c r="C36" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="D36" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="E36" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="F36" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="G36" t="s">
-        <v>29</v>
+        <v>182</v>
       </c>
       <c r="H36" t="s">
-        <v>186</v>
+        <v>189</v>
       </c>
     </row>
     <row r="37" spans="1:8">
@@ -1882,22 +1891,22 @@
         <v>9</v>
       </c>
       <c r="C37" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="D37" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="E37" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="F37" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="G37" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="H37" t="s">
-        <v>180</v>
+        <v>183</v>
       </c>
     </row>
     <row r="38" spans="1:8">
@@ -1908,22 +1917,22 @@
         <v>9</v>
       </c>
       <c r="C38" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="D38" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="E38" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="F38" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="G38" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="H38" t="s">
-        <v>182</v>
+        <v>185</v>
       </c>
     </row>
     <row r="39" spans="1:8">
@@ -1934,22 +1943,22 @@
         <v>9</v>
       </c>
       <c r="C39" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="D39" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="E39" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="F39" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="G39" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="H39" t="s">
-        <v>184</v>
+        <v>187</v>
       </c>
     </row>
     <row r="40" spans="1:8">
@@ -1960,22 +1969,22 @@
         <v>9</v>
       </c>
       <c r="C40" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="D40" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="E40" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="F40" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="G40" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="H40" t="s">
-        <v>180</v>
+        <v>183</v>
       </c>
     </row>
     <row r="41" spans="1:8">
@@ -1986,22 +1995,22 @@
         <v>9</v>
       </c>
       <c r="C41" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D41" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="E41" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="F41" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="G41" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="H41" t="s">
-        <v>181</v>
+        <v>184</v>
       </c>
     </row>
     <row r="42" spans="1:8">
@@ -2012,22 +2021,22 @@
         <v>9</v>
       </c>
       <c r="C42" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="D42" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="E42" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="F42" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="G42" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="H42" t="s">
-        <v>182</v>
+        <v>185</v>
       </c>
     </row>
     <row r="43" spans="1:8">
@@ -2038,22 +2047,22 @@
         <v>9</v>
       </c>
       <c r="C43" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="D43" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="E43" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="F43" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="G43" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="H43" t="s">
-        <v>184</v>
+        <v>187</v>
       </c>
     </row>
     <row r="44" spans="1:8">
@@ -2067,19 +2076,19 @@
         <v>11</v>
       </c>
       <c r="D44" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="E44" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="F44" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="G44" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="H44" t="s">
-        <v>185</v>
+        <v>188</v>
       </c>
     </row>
     <row r="45" spans="1:8">
@@ -2090,22 +2099,22 @@
         <v>9</v>
       </c>
       <c r="C45" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="D45" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="E45" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="F45" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="G45" t="s">
-        <v>29</v>
+        <v>182</v>
       </c>
       <c r="H45" t="s">
-        <v>186</v>
+        <v>189</v>
       </c>
     </row>
     <row r="46" spans="1:8">
@@ -2116,22 +2125,22 @@
         <v>9</v>
       </c>
       <c r="C46" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="D46" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="E46" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="F46" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="G46" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="H46" t="s">
-        <v>180</v>
+        <v>183</v>
       </c>
     </row>
     <row r="47" spans="1:8">
@@ -2142,22 +2151,22 @@
         <v>9</v>
       </c>
       <c r="C47" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="D47" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="E47" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="F47" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="G47" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="H47" t="s">
-        <v>182</v>
+        <v>185</v>
       </c>
     </row>
     <row r="48" spans="1:8">
@@ -2168,22 +2177,22 @@
         <v>9</v>
       </c>
       <c r="C48" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="D48" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="E48" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="F48" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="G48" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="H48" t="s">
-        <v>184</v>
+        <v>187</v>
       </c>
     </row>
     <row r="49" spans="1:8">
@@ -2197,19 +2206,19 @@
         <v>11</v>
       </c>
       <c r="D49" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="E49" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="F49" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="G49" t="s">
-        <v>29</v>
+        <v>182</v>
       </c>
       <c r="H49" t="s">
-        <v>186</v>
+        <v>189</v>
       </c>
     </row>
     <row r="50" spans="1:8">
@@ -2220,22 +2229,22 @@
         <v>9</v>
       </c>
       <c r="C50" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="D50" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="E50" t="s">
-        <v>63</v>
+        <v>158</v>
       </c>
       <c r="F50" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="G50" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="H50" t="s">
-        <v>180</v>
+        <v>183</v>
       </c>
     </row>
     <row r="51" spans="1:8">
@@ -2246,22 +2255,22 @@
         <v>9</v>
       </c>
       <c r="C51" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="D51" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="E51" t="s">
-        <v>63</v>
+        <v>158</v>
       </c>
       <c r="F51" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="G51" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="H51" t="s">
-        <v>182</v>
+        <v>185</v>
       </c>
     </row>
     <row r="52" spans="1:8">
@@ -2272,22 +2281,22 @@
         <v>9</v>
       </c>
       <c r="C52" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="D52" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="E52" t="s">
-        <v>63</v>
+        <v>158</v>
       </c>
       <c r="F52" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="G52" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="H52" t="s">
-        <v>184</v>
+        <v>187</v>
       </c>
     </row>
     <row r="53" spans="1:8">
@@ -2301,19 +2310,19 @@
         <v>19</v>
       </c>
       <c r="D53" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="E53" t="s">
-        <v>63</v>
+        <v>158</v>
       </c>
       <c r="F53" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="G53" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="H53" t="s">
-        <v>185</v>
+        <v>188</v>
       </c>
     </row>
     <row r="54" spans="1:8">
@@ -2324,22 +2333,22 @@
         <v>9</v>
       </c>
       <c r="C54" t="s">
-        <v>14</v>
+        <v>37</v>
       </c>
       <c r="D54" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="E54" t="s">
-        <v>63</v>
+        <v>158</v>
       </c>
       <c r="F54" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="G54" t="s">
-        <v>29</v>
+        <v>182</v>
       </c>
       <c r="H54" t="s">
-        <v>186</v>
+        <v>189</v>
       </c>
     </row>
     <row r="55" spans="1:8">
@@ -2350,22 +2359,22 @@
         <v>9</v>
       </c>
       <c r="C55" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="D55" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="E55" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="F55" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="G55" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="H55" t="s">
-        <v>180</v>
+        <v>183</v>
       </c>
     </row>
     <row r="56" spans="1:8">
@@ -2376,22 +2385,22 @@
         <v>9</v>
       </c>
       <c r="C56" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="D56" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="E56" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="F56" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="G56" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="H56" t="s">
-        <v>182</v>
+        <v>185</v>
       </c>
     </row>
     <row r="57" spans="1:8">
@@ -2402,22 +2411,22 @@
         <v>9</v>
       </c>
       <c r="C57" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="D57" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="E57" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="F57" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="G57" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="H57" t="s">
-        <v>184</v>
+        <v>187</v>
       </c>
     </row>
     <row r="58" spans="1:8">
@@ -2428,22 +2437,22 @@
         <v>9</v>
       </c>
       <c r="C58" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="D58" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="E58" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="F58" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="G58" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="H58" t="s">
-        <v>185</v>
+        <v>188</v>
       </c>
     </row>
     <row r="59" spans="1:8">
@@ -2457,19 +2466,19 @@
         <v>15</v>
       </c>
       <c r="D59" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="E59" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="F59" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="G59" t="s">
-        <v>29</v>
+        <v>182</v>
       </c>
       <c r="H59" t="s">
-        <v>186</v>
+        <v>189</v>
       </c>
     </row>
     <row r="60" spans="1:8">
@@ -2480,22 +2489,22 @@
         <v>9</v>
       </c>
       <c r="C60" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="D60" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="E60" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="F60" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="G60" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="H60" t="s">
-        <v>180</v>
+        <v>183</v>
       </c>
     </row>
     <row r="61" spans="1:8">
@@ -2509,19 +2518,19 @@
         <v>11</v>
       </c>
       <c r="D61" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="E61" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="F61" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="G61" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="H61" t="s">
-        <v>181</v>
+        <v>184</v>
       </c>
     </row>
     <row r="62" spans="1:8">
@@ -2532,22 +2541,22 @@
         <v>9</v>
       </c>
       <c r="C62" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="D62" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="E62" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="F62" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="G62" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="H62" t="s">
-        <v>182</v>
+        <v>185</v>
       </c>
     </row>
     <row r="63" spans="1:8">
@@ -2558,22 +2567,22 @@
         <v>9</v>
       </c>
       <c r="C63" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="D63" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="E63" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="F63" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="G63" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="H63" t="s">
-        <v>184</v>
+        <v>187</v>
       </c>
     </row>
     <row r="64" spans="1:8">
@@ -2584,22 +2593,22 @@
         <v>9</v>
       </c>
       <c r="C64" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="D64" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="E64" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="F64" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="G64" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="H64" t="s">
-        <v>185</v>
+        <v>188</v>
       </c>
     </row>
     <row r="65" spans="1:8">
@@ -2610,22 +2619,22 @@
         <v>9</v>
       </c>
       <c r="C65" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="D65" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="E65" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="F65" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="G65" t="s">
-        <v>29</v>
+        <v>182</v>
       </c>
       <c r="H65" t="s">
-        <v>186</v>
+        <v>189</v>
       </c>
     </row>
     <row r="66" spans="1:8">
@@ -2636,22 +2645,22 @@
         <v>9</v>
       </c>
       <c r="C66" t="s">
-        <v>47</v>
+        <v>59</v>
       </c>
       <c r="D66" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="E66" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="F66" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="G66" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="H66" t="s">
-        <v>180</v>
+        <v>183</v>
       </c>
     </row>
     <row r="67" spans="1:8">
@@ -2662,22 +2671,22 @@
         <v>9</v>
       </c>
       <c r="C67" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D67" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="E67" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="F67" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="G67" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="H67" t="s">
-        <v>181</v>
+        <v>184</v>
       </c>
     </row>
     <row r="68" spans="1:8">
@@ -2688,22 +2697,22 @@
         <v>9</v>
       </c>
       <c r="C68" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="D68" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="E68" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="F68" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="G68" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="H68" t="s">
-        <v>182</v>
+        <v>185</v>
       </c>
     </row>
     <row r="69" spans="1:8">
@@ -2714,22 +2723,22 @@
         <v>9</v>
       </c>
       <c r="C69" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="D69" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="E69" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="F69" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="G69" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="H69" t="s">
-        <v>184</v>
+        <v>187</v>
       </c>
     </row>
     <row r="70" spans="1:8">
@@ -2740,22 +2749,22 @@
         <v>9</v>
       </c>
       <c r="C70" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="D70" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="E70" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="F70" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="G70" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="H70" t="s">
-        <v>185</v>
+        <v>188</v>
       </c>
     </row>
     <row r="71" spans="1:8">
@@ -2766,22 +2775,22 @@
         <v>9</v>
       </c>
       <c r="C71" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="D71" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="E71" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="F71" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="G71" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="H71" t="s">
-        <v>180</v>
+        <v>183</v>
       </c>
     </row>
     <row r="72" spans="1:8">
@@ -2792,22 +2801,22 @@
         <v>9</v>
       </c>
       <c r="C72" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="D72" t="s">
-        <v>135</v>
+        <v>76</v>
       </c>
       <c r="E72" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="F72" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="G72" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="H72" t="s">
-        <v>181</v>
+        <v>184</v>
       </c>
     </row>
     <row r="73" spans="1:8">
@@ -2818,22 +2827,22 @@
         <v>9</v>
       </c>
       <c r="C73" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="D73" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="E73" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="F73" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="G73" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="H73" t="s">
-        <v>182</v>
+        <v>185</v>
       </c>
     </row>
     <row r="74" spans="1:8">
@@ -2844,22 +2853,22 @@
         <v>9</v>
       </c>
       <c r="C74" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D74" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="E74" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="F74" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="G74" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="H74" t="s">
-        <v>183</v>
+        <v>186</v>
       </c>
     </row>
     <row r="75" spans="1:8">
@@ -2870,22 +2879,22 @@
         <v>9</v>
       </c>
       <c r="C75" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="D75" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="E75" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="F75" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="G75" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="H75" t="s">
-        <v>184</v>
+        <v>187</v>
       </c>
     </row>
     <row r="76" spans="1:8">
@@ -2896,22 +2905,22 @@
         <v>9</v>
       </c>
       <c r="C76" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="D76" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="E76" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="F76" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="G76" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="H76" t="s">
-        <v>185</v>
+        <v>188</v>
       </c>
     </row>
     <row r="77" spans="1:8">
@@ -2922,22 +2931,22 @@
         <v>9</v>
       </c>
       <c r="C77" t="s">
-        <v>63</v>
+        <v>53</v>
       </c>
       <c r="D77" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="E77" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="F77" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="G77" t="s">
-        <v>29</v>
+        <v>182</v>
       </c>
       <c r="H77" t="s">
-        <v>186</v>
+        <v>189</v>
       </c>
     </row>
     <row r="78" spans="1:8">
@@ -2948,22 +2957,22 @@
         <v>9</v>
       </c>
       <c r="C78" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="D78" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="E78" t="s">
         <v>14</v>
       </c>
       <c r="F78" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="G78" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="H78" t="s">
-        <v>180</v>
+        <v>183</v>
       </c>
     </row>
     <row r="79" spans="1:8">
@@ -2974,22 +2983,22 @@
         <v>9</v>
       </c>
       <c r="C79" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="D79" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="E79" t="s">
         <v>14</v>
       </c>
       <c r="F79" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="G79" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="H79" t="s">
-        <v>181</v>
+        <v>184</v>
       </c>
     </row>
     <row r="80" spans="1:8">
@@ -3000,22 +3009,22 @@
         <v>9</v>
       </c>
       <c r="C80" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="D80" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="E80" t="s">
         <v>14</v>
       </c>
       <c r="F80" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="G80" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="H80" t="s">
-        <v>182</v>
+        <v>185</v>
       </c>
     </row>
     <row r="81" spans="1:8">
@@ -3026,22 +3035,22 @@
         <v>9</v>
       </c>
       <c r="C81" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="D81" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="E81" t="s">
         <v>14</v>
       </c>
       <c r="F81" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="G81" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="H81" t="s">
-        <v>183</v>
+        <v>186</v>
       </c>
     </row>
     <row r="82" spans="1:8">
@@ -3052,22 +3061,22 @@
         <v>9</v>
       </c>
       <c r="C82" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="D82" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="E82" t="s">
         <v>14</v>
       </c>
       <c r="F82" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="G82" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="H82" t="s">
-        <v>184</v>
+        <v>187</v>
       </c>
     </row>
     <row r="83" spans="1:8">
@@ -3078,22 +3087,22 @@
         <v>9</v>
       </c>
       <c r="C83" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="D83" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="E83" t="s">
         <v>14</v>
       </c>
       <c r="F83" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="G83" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="H83" t="s">
-        <v>185</v>
+        <v>188</v>
       </c>
     </row>
     <row r="84" spans="1:8">
@@ -3104,22 +3113,22 @@
         <v>9</v>
       </c>
       <c r="C84" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="D84" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="E84" t="s">
         <v>14</v>
       </c>
       <c r="F84" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="G84" t="s">
-        <v>29</v>
+        <v>182</v>
       </c>
       <c r="H84" t="s">
-        <v>186</v>
+        <v>189</v>
       </c>
     </row>
   </sheetData>
